--- a/data/trans_bre/CONS_DIA-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIA-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,57 +468,57 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -592,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,98</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,33</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>27,38%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,97%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-21,35%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>3.332000904324139</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>2.342874259206262</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>-4.199004906746209</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.2158491538223576</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.1423111159469543</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.2612974233335893</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,19; 8,54</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 5,67</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,6; 1,03</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,46; 74,07</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-17,01; 38,5</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-40,41; 8,61</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>-2.339031266534676</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-2.594478857952245</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>-8.330913694615209</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1123196179276218</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.13654148944056</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.4560448832753318</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.693863252705452</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>7.293357791868588</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.1494317824123945</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.7552473031226352</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.5314725763764437</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.01477088697275495</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,21</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,61</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-45,13%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-18,08%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-48,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,88; -1,54</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 0,4</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; -2,37</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-58,9; -24,45</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-37,19; 7,35</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-60,64; -34,7</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>-2.999586982667945</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>-0.7895685519226252</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>-3.92532940123523</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.4355661673522206</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.125955926431469</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.5055481402908532</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>-4.672626791121222</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-2.71495435328461</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>-5.372968388619571</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.5801427376461388</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.3714411535236591</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.6204272797112665</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>-1.11105360847085</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.6769067493245146</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>-2.594981863452085</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-0.1908690667920387</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1312007496442249</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.3607115967670054</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,02</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,68</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,16</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-52,61%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-59,31%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-44,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,48; -0,8</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,58; -1,12</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 0,23</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-72,89; -16,46</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-78,84; -27,39</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-72,02; 26,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>-3.140471110530572</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>-2.903145452830912</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>-1.214168223185223</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.5360921286506607</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.6424740924879787</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.4442205038365422</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-5.724363948767299</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-4.913170871026066</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-2.728439869389344</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.7334478417119092</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.8222396152394451</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.7062638932458701</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>-0.9684086063565013</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>-1.197525578879083</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>0.232511708531787</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-0.1640812319722423</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-0.3005579776590029</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.2369811790481633</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,76</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-15,36%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-11,45%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-38,35%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,55; 0,13</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 0,34</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,74; -1,73</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-29,24; 2,19</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-26,24; 4,77</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-48,16; -26,54</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>-1.16121994873252</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>-0.5859853869118081</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>-3.084123020620293</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.1532077396698929</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.08073458401550911</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.4127834090057796</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>-2.696797288587255</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>-1.79940125179484</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>-4.178037503975237</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.3124338620436081</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2284028197230849</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.5126824453869796</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0.2667810839246386</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>0.7803781047157942</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>-1.926603208002916</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.04044488914310048</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.1182823349095176</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.2836487326717463</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -921,12 +865,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
